--- a/CaliforniaCountyList.xlsx
+++ b/CaliforniaCountyList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarte\Desktop\UMICH\CMPLXSYS 530\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarte\Documents\Github\CMPLXSYS530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EC0B8A-A3A1-4D9B-91FF-38174A728EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCD23D1-0F5E-448A-BE30-99774A107EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{224B5DCA-8CFB-4388-A88F-750FC01ACBFD}"/>
+    <workbookView xWindow="2718" yWindow="1800" windowWidth="17280" windowHeight="10074" xr2:uid="{224B5DCA-8CFB-4388-A88F-750FC01ACBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="County Data" sheetId="1" r:id="rId1"/>
@@ -981,7 +981,7 @@
   <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1145,6 +1145,9 @@
       <c r="R2">
         <v>-121.913304</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
       <c r="V2" s="1">
         <v>18700</v>
       </c>
@@ -1205,6 +1208,9 @@
       <c r="R3">
         <v>-119.79899899999999</v>
       </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
       <c r="V3">
         <v>0</v>
       </c>
@@ -1264,6 +1270,9 @@
       <c r="R4">
         <v>-120.653856</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
       <c r="V4" s="1">
         <v>15300</v>
       </c>
@@ -1324,6 +1333,9 @@
       <c r="R5">
         <v>-121.601919</v>
       </c>
+      <c r="S5">
+        <v>5.7974621285686538</v>
+      </c>
       <c r="V5" s="1">
         <v>14500</v>
       </c>
@@ -1384,6 +1396,9 @@
       <c r="R6">
         <v>-120.555115</v>
       </c>
+      <c r="S6">
+        <v>0.25903553299492388</v>
+      </c>
       <c r="V6" s="1">
         <v>22000</v>
       </c>
@@ -1444,6 +1459,9 @@
       <c r="R7">
         <v>-122.23756299999999</v>
       </c>
+      <c r="S7">
+        <v>8.022707734237521</v>
+      </c>
       <c r="V7" s="1">
         <v>17100</v>
       </c>
@@ -1504,6 +1522,9 @@
       <c r="R8">
         <v>-121.951543</v>
       </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
       <c r="V8" s="1">
         <v>29500</v>
       </c>
@@ -1564,6 +1585,9 @@
       <c r="R9">
         <v>-123.980998</v>
       </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
       <c r="V9" s="1">
         <v>9700</v>
       </c>
@@ -1624,6 +1648,9 @@
       <c r="R10">
         <v>-120.534398</v>
       </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
       <c r="V10" s="1">
         <v>6300</v>
       </c>
@@ -1684,6 +1711,9 @@
       <c r="R11">
         <v>-119.655019</v>
       </c>
+      <c r="S11">
+        <v>8.6717896945063586</v>
+      </c>
       <c r="V11" s="1">
         <v>375000</v>
       </c>
@@ -1744,6 +1774,9 @@
       <c r="R12">
         <v>-122.40170000000001</v>
       </c>
+      <c r="S12">
+        <v>7.4864944228123091</v>
+      </c>
       <c r="V12" s="1">
         <v>63000</v>
       </c>
@@ -1804,6 +1837,9 @@
       <c r="R13">
         <v>-123.92581800000001</v>
       </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
       <c r="V13" s="1">
         <v>71000</v>
       </c>
@@ -1864,6 +1900,9 @@
       <c r="R14">
         <v>-115.355395</v>
       </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
       <c r="V14" s="1">
         <v>415000</v>
       </c>
@@ -1924,6 +1963,9 @@
       <c r="R15">
         <v>-117.403927</v>
       </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
       <c r="V15" s="1">
         <v>12800</v>
       </c>
@@ -1984,6 +2026,9 @@
       <c r="R16">
         <v>-118.729506</v>
       </c>
+      <c r="S16">
+        <v>8.4399238404335772</v>
+      </c>
       <c r="V16" s="1">
         <v>345000</v>
       </c>
@@ -2044,6 +2089,9 @@
       <c r="R17">
         <v>-119.81553</v>
       </c>
+      <c r="S17">
+        <v>10.322665589660744</v>
+      </c>
       <c r="V17" s="1">
         <v>325000</v>
       </c>
@@ -2104,6 +2152,9 @@
       <c r="R18">
         <v>-122.746757</v>
       </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
       <c r="V18" s="1">
         <v>3700</v>
       </c>
@@ -2164,6 +2215,9 @@
       <c r="R19">
         <v>-120.629931</v>
       </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
       <c r="V19" s="1">
         <v>39000</v>
       </c>
@@ -2224,6 +2278,9 @@
       <c r="R20">
         <v>-118.26186199999999</v>
       </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
       <c r="V20">
         <v>0</v>
       </c>
@@ -2283,6 +2340,9 @@
       <c r="R21">
         <v>-119.749852</v>
       </c>
+      <c r="S21">
+        <v>8.0713982706155285</v>
+      </c>
       <c r="V21" s="1">
         <v>165000</v>
       </c>
@@ -2343,6 +2403,9 @@
       <c r="R22">
         <v>-122.745974</v>
       </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
       <c r="V22" s="1">
         <v>36000</v>
       </c>
@@ -2403,6 +2466,9 @@
       <c r="R23">
         <v>-119.91285999999999</v>
       </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
       <c r="V23" s="1">
         <v>38000</v>
       </c>
@@ -2463,6 +2529,9 @@
       <c r="R24">
         <v>-123.442881</v>
       </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
       <c r="V24" s="1">
         <v>26000</v>
       </c>
@@ -2523,6 +2592,9 @@
       <c r="R25">
         <v>-120.722802</v>
       </c>
+      <c r="S25">
+        <v>4.8937653095284963</v>
+      </c>
       <c r="V25" s="1">
         <v>580000</v>
       </c>
@@ -2583,6 +2655,9 @@
       <c r="R26">
         <v>-120.71836999999999</v>
       </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
       <c r="V26" s="1">
         <v>60000</v>
       </c>
@@ -2643,6 +2718,9 @@
       <c r="R27">
         <v>-118.875167</v>
       </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
       <c r="V27" s="1">
         <v>5900</v>
       </c>
@@ -2703,6 +2781,9 @@
       <c r="R28">
         <v>-121.315573</v>
       </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
       <c r="V28" s="1">
         <v>47500</v>
       </c>
@@ -2763,6 +2844,9 @@
       <c r="R29">
         <v>-122.32599500000001</v>
       </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
       <c r="V29" s="1">
         <v>7900</v>
       </c>
@@ -2823,6 +2907,9 @@
       <c r="R30">
         <v>-120.77344600000001</v>
       </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
       <c r="V30" s="1">
         <v>4100</v>
       </c>
@@ -2883,6 +2970,9 @@
       <c r="R31">
         <v>-117.777207</v>
       </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
       <c r="V31">
         <v>0</v>
       </c>
@@ -2942,6 +3032,9 @@
       <c r="R32">
         <v>-120.722718</v>
       </c>
+      <c r="S32">
+        <v>3.4376853146853152</v>
+      </c>
       <c r="V32" s="1">
         <v>16200</v>
       </c>
@@ -3002,6 +3095,9 @@
       <c r="R33">
         <v>-120.829516</v>
       </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
       <c r="V33" s="1">
         <v>14300</v>
       </c>
@@ -3061,6 +3157,9 @@
       <c r="R34">
         <v>-116.002239</v>
       </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
       <c r="V34" s="1">
         <v>66000</v>
       </c>
@@ -3120,6 +3219,9 @@
       <c r="R35">
         <v>-121.340441</v>
       </c>
+      <c r="S35">
+        <v>2.9048702290076336</v>
+      </c>
       <c r="V35" s="1">
         <v>55000</v>
       </c>
@@ -3179,6 +3281,9 @@
       <c r="R36">
         <v>-121.085296</v>
       </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
       <c r="V36" s="1">
         <v>26000</v>
       </c>
@@ -3238,6 +3343,9 @@
       <c r="R37">
         <v>-116.181197</v>
       </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
       <c r="V37" s="1">
         <v>105000</v>
       </c>
@@ -3297,6 +3405,9 @@
       <c r="R38">
         <v>-116.776117</v>
       </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
       <c r="V38" s="1">
         <v>13300</v>
       </c>
@@ -3356,6 +3467,9 @@
       <c r="R39">
         <v>-123.032229</v>
       </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
       <c r="V39">
         <v>0</v>
       </c>
@@ -3415,6 +3529,9 @@
       <c r="R40">
         <v>-121.272237</v>
       </c>
+      <c r="S40">
+        <v>18.040856314584627</v>
+      </c>
       <c r="V40" s="1">
         <v>220000</v>
       </c>
@@ -3474,6 +3591,9 @@
       <c r="R41">
         <v>-120.44754</v>
       </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
       <c r="V41" s="1">
         <v>42000</v>
       </c>
@@ -3533,6 +3653,9 @@
       <c r="R42">
         <v>-122.37154200000001</v>
       </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
       <c r="V42" s="1">
         <v>2500</v>
       </c>
@@ -3592,6 +3715,9 @@
       <c r="R43">
         <v>-120.03848499999999</v>
       </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
       <c r="V43" s="1">
         <v>25000</v>
       </c>
@@ -3651,6 +3777,9 @@
       <c r="R44">
         <v>-121.690622</v>
       </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
       <c r="V44" s="1">
         <v>21000</v>
       </c>
@@ -3710,6 +3839,9 @@
       <c r="R45">
         <v>-122.007205</v>
       </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
       <c r="V45" s="1">
         <v>3000</v>
       </c>
@@ -3769,6 +3901,9 @@
       <c r="R46">
         <v>-122.04355</v>
       </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
       <c r="V46" s="1">
         <v>37000</v>
       </c>
@@ -3828,6 +3963,9 @@
       <c r="R47">
         <v>-120.52199299999999</v>
       </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
       <c r="V47" s="1">
         <v>5000</v>
       </c>
@@ -3887,6 +4025,9 @@
       <c r="R48">
         <v>-122.533287</v>
       </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
       <c r="V48" s="1">
         <v>49500</v>
       </c>
@@ -3946,6 +4087,9 @@
       <c r="R49">
         <v>-121.939594</v>
       </c>
+      <c r="S49">
+        <v>12.097505891594659</v>
+      </c>
       <c r="V49" s="1">
         <v>39000</v>
       </c>
@@ -4005,6 +4149,9 @@
       <c r="R50">
         <v>-122.945194</v>
       </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
       <c r="V50" s="1">
         <v>88000</v>
       </c>
@@ -4064,6 +4211,9 @@
       <c r="R51">
         <v>-121.002656</v>
       </c>
+      <c r="S51">
+        <v>10.801205626255861</v>
+      </c>
       <c r="V51" s="1">
         <v>430000</v>
       </c>
@@ -4123,6 +4273,9 @@
       <c r="R52">
         <v>-121.702758</v>
       </c>
+      <c r="S52">
+        <v>8.4032044150877798</v>
+      </c>
       <c r="V52" s="1">
         <v>7000</v>
       </c>
@@ -4182,6 +4335,9 @@
       <c r="R53">
         <v>-122.232276</v>
       </c>
+      <c r="S53">
+        <v>6.6036884987384363</v>
+      </c>
       <c r="V53" s="1">
         <v>66000</v>
       </c>
@@ -4241,6 +4397,9 @@
       <c r="R54">
         <v>-123.11440399999999</v>
       </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
       <c r="V54" s="1">
         <v>3000</v>
       </c>
@@ -4300,6 +4459,9 @@
       <c r="R55">
         <v>-118.780542</v>
       </c>
+      <c r="S55">
+        <v>10.462992500317783</v>
+      </c>
       <c r="V55" s="1">
         <v>1060000</v>
       </c>
@@ -4359,6 +4521,9 @@
       <c r="R56">
         <v>-119.964708</v>
       </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
       <c r="V56" s="1">
         <v>10000</v>
       </c>
@@ -4418,6 +4583,9 @@
       <c r="R57">
         <v>-119.133143</v>
       </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
       <c r="V57" s="1">
         <v>5800</v>
       </c>
@@ -4477,6 +4645,9 @@
       <c r="R58">
         <v>-121.903178</v>
       </c>
+      <c r="S58">
+        <v>6.4926438594582843</v>
+      </c>
       <c r="V58" s="1">
         <v>14500</v>
       </c>
@@ -4535,6 +4706,9 @@
       </c>
       <c r="R59">
         <v>-121.34428</v>
+      </c>
+      <c r="S59">
+        <v>8.8766646191646199</v>
       </c>
       <c r="V59" s="1">
         <v>15500</v>

--- a/CaliforniaCountyList.xlsx
+++ b/CaliforniaCountyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarte\Documents\Github\CMPLXSYS530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCD23D1-0F5E-448A-BE30-99774A107EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F70A16E-83AD-437A-8464-091BD2F04738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2718" yWindow="1800" windowWidth="17280" windowHeight="10074" xr2:uid="{224B5DCA-8CFB-4388-A88F-750FC01ACBFD}"/>
+    <workbookView xWindow="3396" yWindow="1014" windowWidth="17280" windowHeight="10074" xr2:uid="{224B5DCA-8CFB-4388-A88F-750FC01ACBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="County Data" sheetId="1" r:id="rId1"/>
@@ -380,33 +380,6 @@
     <t>Predicted Fire Prob</t>
   </si>
   <si>
-    <t>Almond Yield</t>
-  </si>
-  <si>
-    <t>Grape Yield</t>
-  </si>
-  <si>
-    <t>Pistachio Yield</t>
-  </si>
-  <si>
-    <t>Cattle Yield</t>
-  </si>
-  <si>
-    <t>Lettuce Yield</t>
-  </si>
-  <si>
-    <t>Strawberry Yield</t>
-  </si>
-  <si>
-    <t>Tomato Yield</t>
-  </si>
-  <si>
-    <t>Floriculture Yield</t>
-  </si>
-  <si>
-    <t>Walnut Yield</t>
-  </si>
-  <si>
     <t>borders</t>
   </si>
   <si>
@@ -606,6 +579,33 @@
   </si>
   <si>
     <t>Other Counties</t>
+  </si>
+  <si>
+    <t>lettuceYield</t>
+  </si>
+  <si>
+    <t>cattleYield</t>
+  </si>
+  <si>
+    <t>pistachioYield</t>
+  </si>
+  <si>
+    <t>grapeYield</t>
+  </si>
+  <si>
+    <t>almondYield</t>
+  </si>
+  <si>
+    <t>strawberryYield</t>
+  </si>
+  <si>
+    <t>tomatoYield</t>
+  </si>
+  <si>
+    <t>floricultureYield</t>
+  </si>
+  <si>
+    <t>walnutYield</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
   <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -997,19 +997,19 @@
     <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.62890625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.89453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.89453125" customWidth="1"/>
-    <col min="23" max="23" width="9.47265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.62890625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.05078125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.47265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.83984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.05078125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.7890625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
         <v>101</v>
@@ -1048,7 +1048,7 @@
         <v>108</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>113</v>
@@ -1063,31 +1063,31 @@
         <v>110</v>
       </c>
       <c r="S1" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="T1" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="U1" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="V1" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="W1" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="X1" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="Y1" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="Z1" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="AA1" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -1131,7 +1131,7 @@
         <v>821.32799999999997</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="O2" s="3">
         <v>1E-3</v>
@@ -1194,7 +1194,7 @@
         <v>743.18</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="O3" s="3">
         <v>2.01E-2</v>
@@ -1256,7 +1256,7 @@
         <v>605.95600000000002</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="O4" s="3">
         <v>5.1000000000000004E-3</v>
@@ -1319,7 +1319,7 @@
         <v>1677.1310000000001</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="O5" s="3">
         <v>5.1000000000000004E-3</v>
@@ -1382,7 +1382,7 @@
         <v>1036.9269999999999</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="O6" s="3">
         <v>1.5100000000000001E-2</v>
@@ -1445,7 +1445,7 @@
         <v>1156.3610000000001</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O7" s="3">
         <v>0.03</v>
@@ -1508,7 +1508,7 @@
         <v>803.77</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="O8" s="3">
         <v>1E-3</v>
@@ -1571,7 +1571,7 @@
         <v>1229.7429999999999</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O9" s="3">
         <v>1E-3</v>
@@ -1634,7 +1634,7 @@
         <v>1786.356</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="O10" s="3">
         <v>1.5100000000000001E-2</v>
@@ -1697,7 +1697,7 @@
         <v>6011.2020000000002</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="O11" s="3">
         <v>2.01E-2</v>
@@ -1760,7 +1760,7 @@
         <v>1326.9780000000001</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O12" s="3">
         <v>5.1000000000000004E-3</v>
@@ -1823,7 +1823,7 @@
         <v>4052.2579999999998</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O13" s="3">
         <v>5.0000000000000001E-3</v>
@@ -1886,7 +1886,7 @@
         <v>4481.7190000000001</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O14" s="3">
         <v>1E-3</v>
@@ -1949,7 +1949,7 @@
         <v>10226.905000000001</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="O15" s="3">
         <v>1.1000000000000001E-3</v>
@@ -2012,7 +2012,7 @@
         <v>8162.6409999999996</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O16" s="3">
         <v>5.1000000000000004E-3</v>
@@ -2075,7 +2075,7 @@
         <v>1391.5309999999999</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="O17" s="3">
         <v>5.1000000000000004E-3</v>
@@ -2138,7 +2138,7 @@
         <v>1329.423</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="O18" s="3">
         <v>0.03</v>
@@ -2201,7 +2201,7 @@
         <v>4720.1189999999997</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O19" s="3">
         <v>2.1000000000000001E-2</v>
@@ -2264,7 +2264,7 @@
         <v>4750.942</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="O20" s="3">
         <v>0.03</v>
@@ -2326,7 +2326,7 @@
         <v>2153.2689999999998</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="O21" s="3">
         <v>1.0999999999999999E-2</v>
@@ -2389,7 +2389,7 @@
         <v>828.19200000000001</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="O22" s="3">
         <v>1E-3</v>
@@ -2452,7 +2452,7 @@
         <v>1462.82</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="O23" s="3">
         <v>1.5100000000000001E-2</v>
@@ -2515,7 +2515,7 @@
         <v>3878.1410000000001</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="O24" s="3">
         <v>1.5100000000000001E-2</v>
@@ -2578,7 +2578,7 @@
         <v>1978.509</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="O25" s="3">
         <v>5.1000000000000004E-3</v>
@@ -2641,7 +2641,7 @@
         <v>4203.3990000000003</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O26" s="3">
         <v>1.4999999999999999E-2</v>
@@ -2704,7 +2704,7 @@
         <v>3131.8760000000002</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="O27" s="3">
         <v>5.1000000000000004E-3</v>
@@ -2767,7 +2767,7 @@
         <v>3771.221</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="O28" s="3">
         <v>0.03</v>
@@ -2830,7 +2830,7 @@
         <v>788.58199999999999</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O29" s="3">
         <v>0.03</v>
@@ -2893,7 +2893,7 @@
         <v>973.80100000000004</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="O30" s="3">
         <v>1.0999999999999999E-2</v>
@@ -2956,7 +2956,7 @@
         <v>948.06600000000003</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="O31" s="3">
         <v>0.03</v>
@@ -3018,7 +3018,7 @@
         <v>1502.4559999999999</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O32" s="3">
         <v>0.03</v>
@@ -3081,7 +3081,7 @@
         <v>2613.4279999999999</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O33" s="3">
         <v>1.1000000000000001E-3</v>
@@ -3143,7 +3143,7 @@
         <v>7303.42</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O34" s="3">
         <v>0.03</v>
@@ -3205,7 +3205,7 @@
         <v>994.01800000000003</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="O35" s="3">
         <v>5.1000000000000004E-3</v>
@@ -3267,7 +3267,7 @@
         <v>1390.4690000000001</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O36" s="3">
         <v>0.03</v>
@@ -3329,7 +3329,7 @@
         <v>20104.826000000001</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="O37" s="3">
         <v>0.03</v>
@@ -3391,7 +3391,7 @@
         <v>4525.6850000000004</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="O38" s="3">
         <v>0.03</v>
@@ -3453,7 +3453,7 @@
         <v>231.88900000000001</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="O39" s="3">
         <v>1E-3</v>
@@ -3515,7 +3515,7 @@
         <v>1426.499</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="O40" s="3">
         <v>1.1000000000000001E-3</v>
@@ -3577,7 +3577,7 @@
         <v>3615.547</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O41" s="3">
         <v>0.03</v>
@@ -3639,7 +3639,7 @@
         <v>740.95899999999995</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O42" s="3">
         <v>1.4999999999999999E-2</v>
@@ -3701,7 +3701,7 @@
         <v>3789.078</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="O43" s="3">
         <v>0.03</v>
@@ -3763,7 +3763,7 @@
         <v>1304.067</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="O44" s="3">
         <v>5.1000000000000004E-3</v>
@@ -3825,7 +3825,7 @@
         <v>607.16600000000005</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="O45" s="3">
         <v>1.1000000000000001E-3</v>
@@ -3887,7 +3887,7 @@
         <v>3847.422</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O46" s="3">
         <v>0.03</v>
@@ -3949,7 +3949,7 @@
         <v>962.21</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O47" s="3">
         <v>1.1000000000000001E-3</v>
@@ -4011,7 +4011,7 @@
         <v>6347.3429999999998</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="O48" s="3">
         <v>0.03</v>
@@ -4073,7 +4073,7 @@
         <v>906.19200000000001</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="O49" s="3">
         <v>1E-3</v>
@@ -4135,7 +4135,7 @@
         <v>1767.9469999999999</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="O50" s="3">
         <v>1E-3</v>
@@ -4197,7 +4197,7 @@
         <v>1514.6869999999999</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="O51" s="3">
         <v>5.1000000000000004E-3</v>
@@ -4259,7 +4259,7 @@
         <v>608.49</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O52" s="3">
         <v>1E-3</v>
@@ -4321,7 +4321,7 @@
         <v>2962.1709999999998</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="O53" s="3">
         <v>0.03</v>
@@ -4383,7 +4383,7 @@
         <v>3207.5970000000002</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="O54" s="3">
         <v>0.03</v>
@@ -4445,7 +4445,7 @@
         <v>4838.652</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="O55" s="3">
         <v>0.03</v>
@@ -4507,7 +4507,7 @@
         <v>2274.4299999999998</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O56" s="3">
         <v>2.01E-2</v>
@@ -4569,7 +4569,7 @@
         <v>2208.3820000000001</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O57" s="3">
         <v>0.03</v>
@@ -4631,7 +4631,7 @@
         <v>1023.557</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O58" s="3">
         <v>0.03</v>
@@ -4693,7 +4693,7 @@
         <v>643.80799999999999</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O59" s="3">
         <v>1.5100000000000001E-2</v>
@@ -4750,22 +4750,22 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4779,7 +4779,7 @@
         <v>10600</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E3" s="1">
         <v>18700</v>
@@ -4788,7 +4788,7 @@
         <v>11200</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4796,22 +4796,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4822,19 +4822,19 @@
         <v>15100</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E5" s="1">
         <v>15300</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4845,19 +4845,19 @@
         <v>14200</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E6" s="1">
         <v>14500</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4871,7 +4871,7 @@
         <v>10000</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E7" s="1">
         <v>22000</v>
@@ -4880,7 +4880,7 @@
         <v>10500</v>
       </c>
       <c r="G7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4894,7 +4894,7 @@
         <v>10400</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E8" s="1">
         <v>17100</v>
@@ -4903,7 +4903,7 @@
         <v>11000</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4914,19 +4914,19 @@
         <v>29000</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E9" s="1">
         <v>29500</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4963,7 +4963,7 @@
         <v>2900</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1">
         <v>6300</v>
@@ -4972,7 +4972,7 @@
         <v>3100</v>
       </c>
       <c r="G11" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5052,19 +5052,19 @@
         <v>410000</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E15" s="1">
         <v>415000</v>
       </c>
       <c r="F15" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5075,19 +5075,19 @@
         <v>12700</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E16" s="1">
         <v>12800</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5147,7 +5147,7 @@
         <v>1900</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E19" s="1">
         <v>3700</v>
@@ -5156,7 +5156,7 @@
         <v>2000</v>
       </c>
       <c r="G19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5170,7 +5170,7 @@
         <v>20500</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E20" s="1">
         <v>39000</v>
@@ -5179,7 +5179,7 @@
         <v>21500</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5190,19 +5190,19 @@
         <v>6900</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F21" s="1">
         <v>7000</v>
       </c>
       <c r="G21" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H21" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5259,19 +5259,19 @@
         <v>37500</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E24" s="1">
         <v>38000</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5328,19 +5328,19 @@
         <v>59000</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E27" s="1">
         <v>60000</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5351,19 +5351,19 @@
         <v>5700</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E28" s="1">
         <v>5900</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5397,19 +5397,19 @@
         <v>7800</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E30" s="1">
         <v>7900</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5423,7 +5423,7 @@
         <v>2000</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E31" s="1">
         <v>4100</v>
@@ -5432,7 +5432,7 @@
         <v>2100</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5440,27 +5440,27 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B33">
         <v>400</v>
@@ -5512,19 +5512,19 @@
         <v>14200</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E35" s="1">
         <v>14300</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5581,19 +5581,19 @@
         <v>26000</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E38" s="1">
         <v>26000</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5647,22 +5647,22 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F41" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G41" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5722,7 +5722,7 @@
         <v>900</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E44" s="1">
         <v>2500</v>
@@ -5731,7 +5731,7 @@
         <v>1000</v>
       </c>
       <c r="G44" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5742,19 +5742,19 @@
         <v>25000</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E45" s="1">
         <v>25000</v>
       </c>
       <c r="F45" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G45" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5768,7 +5768,7 @@
         <v>10200</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E46" s="1">
         <v>21000</v>
@@ -5777,7 +5777,7 @@
         <v>10700</v>
       </c>
       <c r="G46" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5791,7 +5791,7 @@
         <v>400</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E47" s="1">
         <v>3000</v>
@@ -5800,7 +5800,7 @@
         <v>400</v>
       </c>
       <c r="G47" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5814,7 +5814,7 @@
         <v>15000</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E48" s="1">
         <v>37000</v>
@@ -5823,7 +5823,7 @@
         <v>15900</v>
       </c>
       <c r="G48" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5837,7 +5837,7 @@
         <v>2900</v>
       </c>
       <c r="D49" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E49" s="1">
         <v>5000</v>
@@ -5846,7 +5846,7 @@
         <v>3100</v>
       </c>
       <c r="G49" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5883,7 +5883,7 @@
         <v>15000</v>
       </c>
       <c r="D51" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E51" s="1">
         <v>39000</v>
@@ -5892,7 +5892,7 @@
         <v>15800</v>
       </c>
       <c r="G51" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5952,7 +5952,7 @@
         <v>3200</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E54" s="1">
         <v>7000</v>
@@ -5961,7 +5961,7 @@
         <v>3400</v>
       </c>
       <c r="G54" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5998,7 +5998,7 @@
         <v>1600</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E56" s="1">
         <v>3000</v>
@@ -6007,7 +6007,7 @@
         <v>1700</v>
       </c>
       <c r="G56" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6041,19 +6041,19 @@
         <v>9700</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E58" s="1">
         <v>10000</v>
       </c>
       <c r="F58" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6067,7 +6067,7 @@
         <v>3300</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E59" s="1">
         <v>5800</v>
@@ -6076,7 +6076,7 @@
         <v>3500</v>
       </c>
       <c r="G59" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6087,19 +6087,19 @@
         <v>14300</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E60" s="1">
         <v>14500</v>
       </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G60" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6110,24 +6110,24 @@
         <v>15400</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E61" s="1">
         <v>15500</v>
       </c>
       <c r="F61" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G61" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B62" s="1">
         <v>5150000</v>

--- a/CaliforniaCountyList.xlsx
+++ b/CaliforniaCountyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarte\Documents\Github\CMPLXSYS530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F70A16E-83AD-437A-8464-091BD2F04738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D6E97-4854-4461-A5CC-2F460B2B12F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="1014" windowWidth="17280" windowHeight="10074" xr2:uid="{224B5DCA-8CFB-4388-A88F-750FC01ACBFD}"/>
+    <workbookView xWindow="3732" yWindow="1350" windowWidth="17280" windowHeight="10074" xr2:uid="{224B5DCA-8CFB-4388-A88F-750FC01ACBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="County Data" sheetId="1" r:id="rId1"/>
@@ -374,12 +374,6 @@
     <t>County</t>
   </si>
   <si>
-    <t>Observed Fire Prob</t>
-  </si>
-  <si>
-    <t>Predicted Fire Prob</t>
-  </si>
-  <si>
     <t>borders</t>
   </si>
   <si>
@@ -606,6 +600,12 @@
   </si>
   <si>
     <t>walnutYield</t>
+  </si>
+  <si>
+    <t>ObservedfireProb</t>
+  </si>
+  <si>
+    <t>PredictedfireProb</t>
   </si>
 </sst>
 </file>
@@ -980,21 +980,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BE8DAF-C69E-4C2C-A52C-E34A800ED6B8}">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="4" width="8.83984375" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="8.83984375" customWidth="1"/>
     <col min="5" max="5" width="12.9453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.68359375" hidden="1" customWidth="1"/>
-    <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7890625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1015625" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15.734375" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5234375" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.68359375" customWidth="1"/>
+    <col min="7" max="12" width="8.83984375" customWidth="1"/>
+    <col min="13" max="13" width="8.7890625" customWidth="1"/>
+    <col min="14" max="14" width="15.1015625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="15.734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.5234375" style="3" customWidth="1"/>
+    <col min="17" max="18" width="8.83984375" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.62890625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.47265625" bestFit="1" customWidth="1"/>
@@ -1009,7 +1009,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
         <v>101</v>
@@ -1048,13 +1048,13 @@
         <v>108</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="Q1" t="s">
         <v>109</v>
@@ -1063,31 +1063,31 @@
         <v>110</v>
       </c>
       <c r="S1" t="s">
+        <v>183</v>
+      </c>
+      <c r="T1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W1" t="s">
+        <v>179</v>
+      </c>
+      <c r="X1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y1" t="s">
         <v>185</v>
       </c>
-      <c r="T1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U1" t="s">
-        <v>183</v>
-      </c>
-      <c r="V1" t="s">
-        <v>182</v>
-      </c>
-      <c r="W1" t="s">
-        <v>181</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>186</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>187</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -1131,7 +1131,7 @@
         <v>821.32799999999997</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O2" s="3">
         <v>1E-3</v>
@@ -1194,7 +1194,7 @@
         <v>743.18</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O3" s="3">
         <v>2.01E-2</v>
@@ -1256,7 +1256,7 @@
         <v>605.95600000000002</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O4" s="3">
         <v>5.1000000000000004E-3</v>
@@ -1319,7 +1319,7 @@
         <v>1677.1310000000001</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O5" s="3">
         <v>5.1000000000000004E-3</v>
@@ -1382,7 +1382,7 @@
         <v>1036.9269999999999</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O6" s="3">
         <v>1.5100000000000001E-2</v>
@@ -1445,7 +1445,7 @@
         <v>1156.3610000000001</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O7" s="3">
         <v>0.03</v>
@@ -1508,7 +1508,7 @@
         <v>803.77</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O8" s="3">
         <v>1E-3</v>
@@ -1571,7 +1571,7 @@
         <v>1229.7429999999999</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O9" s="3">
         <v>1E-3</v>
@@ -1634,7 +1634,7 @@
         <v>1786.356</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O10" s="3">
         <v>1.5100000000000001E-2</v>
@@ -1697,7 +1697,7 @@
         <v>6011.2020000000002</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O11" s="3">
         <v>2.01E-2</v>
@@ -1760,7 +1760,7 @@
         <v>1326.9780000000001</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O12" s="3">
         <v>5.1000000000000004E-3</v>
@@ -1823,7 +1823,7 @@
         <v>4052.2579999999998</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O13" s="3">
         <v>5.0000000000000001E-3</v>
@@ -1886,7 +1886,7 @@
         <v>4481.7190000000001</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O14" s="3">
         <v>1E-3</v>
@@ -1949,7 +1949,7 @@
         <v>10226.905000000001</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O15" s="3">
         <v>1.1000000000000001E-3</v>
@@ -2012,7 +2012,7 @@
         <v>8162.6409999999996</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O16" s="3">
         <v>5.1000000000000004E-3</v>
@@ -2075,7 +2075,7 @@
         <v>1391.5309999999999</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O17" s="3">
         <v>5.1000000000000004E-3</v>
@@ -2138,7 +2138,7 @@
         <v>1329.423</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O18" s="3">
         <v>0.03</v>
@@ -2201,7 +2201,7 @@
         <v>4720.1189999999997</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O19" s="3">
         <v>2.1000000000000001E-2</v>
@@ -2264,7 +2264,7 @@
         <v>4750.942</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O20" s="3">
         <v>0.03</v>
@@ -2326,7 +2326,7 @@
         <v>2153.2689999999998</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O21" s="3">
         <v>1.0999999999999999E-2</v>
@@ -2389,7 +2389,7 @@
         <v>828.19200000000001</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O22" s="3">
         <v>1E-3</v>
@@ -2452,7 +2452,7 @@
         <v>1462.82</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O23" s="3">
         <v>1.5100000000000001E-2</v>
@@ -2515,7 +2515,7 @@
         <v>3878.1410000000001</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O24" s="3">
         <v>1.5100000000000001E-2</v>
@@ -2578,7 +2578,7 @@
         <v>1978.509</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O25" s="3">
         <v>5.1000000000000004E-3</v>
@@ -2641,7 +2641,7 @@
         <v>4203.3990000000003</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O26" s="3">
         <v>1.4999999999999999E-2</v>
@@ -2704,7 +2704,7 @@
         <v>3131.8760000000002</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O27" s="3">
         <v>5.1000000000000004E-3</v>
@@ -2767,7 +2767,7 @@
         <v>3771.221</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O28" s="3">
         <v>0.03</v>
@@ -2830,7 +2830,7 @@
         <v>788.58199999999999</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O29" s="3">
         <v>0.03</v>
@@ -2893,7 +2893,7 @@
         <v>973.80100000000004</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O30" s="3">
         <v>1.0999999999999999E-2</v>
@@ -2956,7 +2956,7 @@
         <v>948.06600000000003</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O31" s="3">
         <v>0.03</v>
@@ -3018,7 +3018,7 @@
         <v>1502.4559999999999</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O32" s="3">
         <v>0.03</v>
@@ -3081,7 +3081,7 @@
         <v>2613.4279999999999</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O33" s="3">
         <v>1.1000000000000001E-3</v>
@@ -3143,7 +3143,7 @@
         <v>7303.42</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O34" s="3">
         <v>0.03</v>
@@ -3205,7 +3205,7 @@
         <v>994.01800000000003</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O35" s="3">
         <v>5.1000000000000004E-3</v>
@@ -3267,7 +3267,7 @@
         <v>1390.4690000000001</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O36" s="3">
         <v>0.03</v>
@@ -3329,7 +3329,7 @@
         <v>20104.826000000001</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O37" s="3">
         <v>0.03</v>
@@ -3391,7 +3391,7 @@
         <v>4525.6850000000004</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O38" s="3">
         <v>0.03</v>
@@ -3453,7 +3453,7 @@
         <v>231.88900000000001</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O39" s="3">
         <v>1E-3</v>
@@ -3515,7 +3515,7 @@
         <v>1426.499</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O40" s="3">
         <v>1.1000000000000001E-3</v>
@@ -3577,7 +3577,7 @@
         <v>3615.547</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O41" s="3">
         <v>0.03</v>
@@ -3639,7 +3639,7 @@
         <v>740.95899999999995</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O42" s="3">
         <v>1.4999999999999999E-2</v>
@@ -3701,7 +3701,7 @@
         <v>3789.078</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O43" s="3">
         <v>0.03</v>
@@ -3763,7 +3763,7 @@
         <v>1304.067</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O44" s="3">
         <v>5.1000000000000004E-3</v>
@@ -3825,7 +3825,7 @@
         <v>607.16600000000005</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O45" s="3">
         <v>1.1000000000000001E-3</v>
@@ -3887,7 +3887,7 @@
         <v>3847.422</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O46" s="3">
         <v>0.03</v>
@@ -3949,7 +3949,7 @@
         <v>962.21</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O47" s="3">
         <v>1.1000000000000001E-3</v>
@@ -4011,7 +4011,7 @@
         <v>6347.3429999999998</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O48" s="3">
         <v>0.03</v>
@@ -4073,7 +4073,7 @@
         <v>906.19200000000001</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O49" s="3">
         <v>1E-3</v>
@@ -4135,7 +4135,7 @@
         <v>1767.9469999999999</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O50" s="3">
         <v>1E-3</v>
@@ -4197,7 +4197,7 @@
         <v>1514.6869999999999</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O51" s="3">
         <v>5.1000000000000004E-3</v>
@@ -4259,7 +4259,7 @@
         <v>608.49</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O52" s="3">
         <v>1E-3</v>
@@ -4321,7 +4321,7 @@
         <v>2962.1709999999998</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O53" s="3">
         <v>0.03</v>
@@ -4383,7 +4383,7 @@
         <v>3207.5970000000002</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O54" s="3">
         <v>0.03</v>
@@ -4445,7 +4445,7 @@
         <v>4838.652</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O55" s="3">
         <v>0.03</v>
@@ -4507,7 +4507,7 @@
         <v>2274.4299999999998</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="3">
         <v>2.01E-2</v>
@@ -4569,7 +4569,7 @@
         <v>2208.3820000000001</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O57" s="3">
         <v>0.03</v>
@@ -4631,7 +4631,7 @@
         <v>1023.557</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O58" s="3">
         <v>0.03</v>
@@ -4693,7 +4693,7 @@
         <v>643.80799999999999</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O59" s="3">
         <v>1.5100000000000001E-2</v>
@@ -4750,22 +4750,22 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
         <v>176</v>
       </c>
-      <c r="C2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" t="s">
-        <v>178</v>
-      </c>
       <c r="E2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
         <v>176</v>
-      </c>
-      <c r="F2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4779,7 +4779,7 @@
         <v>10600</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1">
         <v>18700</v>
@@ -4788,7 +4788,7 @@
         <v>11200</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4796,22 +4796,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4822,19 +4822,19 @@
         <v>15100</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1">
         <v>15300</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4845,19 +4845,19 @@
         <v>14200</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E6" s="1">
         <v>14500</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4871,7 +4871,7 @@
         <v>10000</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E7" s="1">
         <v>22000</v>
@@ -4880,7 +4880,7 @@
         <v>10500</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4894,7 +4894,7 @@
         <v>10400</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8" s="1">
         <v>17100</v>
@@ -4903,7 +4903,7 @@
         <v>11000</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4914,19 +4914,19 @@
         <v>29000</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" s="1">
         <v>29500</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4963,7 +4963,7 @@
         <v>2900</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E11" s="1">
         <v>6300</v>
@@ -4972,7 +4972,7 @@
         <v>3100</v>
       </c>
       <c r="G11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5052,19 +5052,19 @@
         <v>410000</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E15" s="1">
         <v>415000</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5075,19 +5075,19 @@
         <v>12700</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E16" s="1">
         <v>12800</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5147,7 +5147,7 @@
         <v>1900</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E19" s="1">
         <v>3700</v>
@@ -5156,7 +5156,7 @@
         <v>2000</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5170,7 +5170,7 @@
         <v>20500</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E20" s="1">
         <v>39000</v>
@@ -5179,7 +5179,7 @@
         <v>21500</v>
       </c>
       <c r="G20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5190,19 +5190,19 @@
         <v>6900</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F21" s="1">
         <v>7000</v>
       </c>
       <c r="G21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5259,19 +5259,19 @@
         <v>37500</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E24" s="1">
         <v>38000</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5328,19 +5328,19 @@
         <v>59000</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E27" s="1">
         <v>60000</v>
       </c>
       <c r="F27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5351,19 +5351,19 @@
         <v>5700</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E28" s="1">
         <v>5900</v>
       </c>
       <c r="F28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5397,19 +5397,19 @@
         <v>7800</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E30" s="1">
         <v>7900</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5423,7 +5423,7 @@
         <v>2000</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E31" s="1">
         <v>4100</v>
@@ -5432,7 +5432,7 @@
         <v>2100</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5440,27 +5440,27 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B33">
         <v>400</v>
@@ -5512,19 +5512,19 @@
         <v>14200</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E35" s="1">
         <v>14300</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5581,19 +5581,19 @@
         <v>26000</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E38" s="1">
         <v>26000</v>
       </c>
       <c r="F38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5647,22 +5647,22 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5722,7 +5722,7 @@
         <v>900</v>
       </c>
       <c r="D44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E44" s="1">
         <v>2500</v>
@@ -5731,7 +5731,7 @@
         <v>1000</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5742,19 +5742,19 @@
         <v>25000</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E45" s="1">
         <v>25000</v>
       </c>
       <c r="F45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5768,7 +5768,7 @@
         <v>10200</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E46" s="1">
         <v>21000</v>
@@ -5777,7 +5777,7 @@
         <v>10700</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5791,7 +5791,7 @@
         <v>400</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E47" s="1">
         <v>3000</v>
@@ -5800,7 +5800,7 @@
         <v>400</v>
       </c>
       <c r="G47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5814,7 +5814,7 @@
         <v>15000</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E48" s="1">
         <v>37000</v>
@@ -5823,7 +5823,7 @@
         <v>15900</v>
       </c>
       <c r="G48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5837,7 +5837,7 @@
         <v>2900</v>
       </c>
       <c r="D49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E49" s="1">
         <v>5000</v>
@@ -5846,7 +5846,7 @@
         <v>3100</v>
       </c>
       <c r="G49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5883,7 +5883,7 @@
         <v>15000</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E51" s="1">
         <v>39000</v>
@@ -5892,7 +5892,7 @@
         <v>15800</v>
       </c>
       <c r="G51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5952,7 +5952,7 @@
         <v>3200</v>
       </c>
       <c r="D54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E54" s="1">
         <v>7000</v>
@@ -5961,7 +5961,7 @@
         <v>3400</v>
       </c>
       <c r="G54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5998,7 +5998,7 @@
         <v>1600</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E56" s="1">
         <v>3000</v>
@@ -6007,7 +6007,7 @@
         <v>1700</v>
       </c>
       <c r="G56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6041,19 +6041,19 @@
         <v>9700</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E58" s="1">
         <v>10000</v>
       </c>
       <c r="F58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6067,7 +6067,7 @@
         <v>3300</v>
       </c>
       <c r="D59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E59" s="1">
         <v>5800</v>
@@ -6076,7 +6076,7 @@
         <v>3500</v>
       </c>
       <c r="G59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6087,19 +6087,19 @@
         <v>14300</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E60" s="1">
         <v>14500</v>
       </c>
       <c r="F60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6110,24 +6110,24 @@
         <v>15400</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E61" s="1">
         <v>15500</v>
       </c>
       <c r="F61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B62" s="1">
         <v>5150000</v>

--- a/CaliforniaCountyList.xlsx
+++ b/CaliforniaCountyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarte\Documents\Github\CMPLXSYS530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D6E97-4854-4461-A5CC-2F460B2B12F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D496D965-2F57-4A17-8A8B-E6EF52A86FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="1350" windowWidth="17280" windowHeight="10074" xr2:uid="{224B5DCA-8CFB-4388-A88F-750FC01ACBFD}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{224B5DCA-8CFB-4388-A88F-750FC01ACBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="County Data" sheetId="1" r:id="rId1"/>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BE8DAF-C69E-4C2C-A52C-E34A800ED6B8}">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/CaliforniaCountyList.xlsx
+++ b/CaliforniaCountyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarte\Documents\Github\CMPLXSYS530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D496D965-2F57-4A17-8A8B-E6EF52A86FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3C6FDF-295D-4FDA-AA51-08600E8B370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{224B5DCA-8CFB-4388-A88F-750FC01ACBFD}"/>
+    <workbookView xWindow="14370" yWindow="1608" windowWidth="17280" windowHeight="10074" xr2:uid="{224B5DCA-8CFB-4388-A88F-750FC01ACBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="County Data" sheetId="1" r:id="rId1"/>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BE8DAF-C69E-4C2C-A52C-E34A800ED6B8}">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
